--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44101.22148361081</v>
+        <v>43360.75866288769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>275.1594447089989</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>44.99661670638294</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.4206460264268</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2379868898510793</v>
+        <v>65.87283976874613</v>
       </c>
       <c r="T11" t="n">
         <v>89.18341408247073</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048975</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.27205084856178</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C12" t="n">
         <v>40.99189795560315</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3585266371151</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>166.6979539789397</v>
@@ -1503,7 +1503,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U12" t="n">
-        <v>94.2071238447502</v>
+        <v>100.513367940112</v>
       </c>
       <c r="V12" t="n">
         <v>101.0839861167127</v>
@@ -1515,7 +1515,7 @@
         <v>74.05638417076489</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>73.96609474459177</v>
       </c>
     </row>
     <row r="13">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>202.6210018711097</v>
       </c>
       <c r="I14" t="n">
-        <v>59.4206460264268</v>
+        <v>59.42064602642685</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874613</v>
+        <v>65.87283976874619</v>
       </c>
       <c r="T14" t="n">
-        <v>51.22367300874294</v>
+        <v>89.18341408247079</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>65.48408346836986</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233411</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715475</v>
+        <v>34.81658261715481</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560315</v>
+        <v>40.99189795560321</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192616</v>
+        <v>15.72846453192622</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268835</v>
+        <v>80.4571819258779</v>
       </c>
       <c r="F15" t="n">
-        <v>49.14619253684614</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637115157</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
         <v>166.6979539789397</v>
@@ -1740,19 +1740,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475026</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.9783821282071</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076494</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>73.96609474459183</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922476</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.5302200659153</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549982</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385664</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021871</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028137</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304864</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755893003</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437366</v>
+        <v>35.45957938437372</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529493</v>
+        <v>88.37870840529499</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494642</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911155</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038785</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632462</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938226</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
         <v>144.5508808461439</v>
@@ -1859,7 +1859,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149221</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>137.8000473848442</v>
+        <v>139.4255281331173</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
@@ -1980,7 +1980,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>20.20624411267142</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>99.09442863656372</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>42.87145994469783</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>160.2266402957612</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20.20624411267144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>229.5763935189055</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>40.60734589463612</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>181.8606663823841</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.01183638550108</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
-        <v>229.5763935189055</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300672</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673131</v>
@@ -2637,13 +2637,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048766</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T27" t="n">
-        <v>192.020414936131</v>
+        <v>133.0443398814447</v>
       </c>
       <c r="U27" t="n">
         <v>225.9237248774628</v>
@@ -2697,7 +2697,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>55.72892492502547</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
         <v>70.05124915955551</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,19 +2798,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632593</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588536</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253701</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068738</v>
+        <v>41.09318678068733</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300672</v>
+        <v>47.54538052300666</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673126</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916829</v>
+        <v>177.7081981916828</v>
       </c>
       <c r="W29" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389609</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.48912337141533</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>22.66443870986373</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,13 +2880,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>84.00546946691242</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>136.0852087998546</v>
+        <v>16.65389370048761</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453214</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901072</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348523</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017577</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454184</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730916</v>
+        <v>10.1825800173091</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863424</v>
+        <v>17.13212013863419</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955551</v>
+        <v>70.05124915955545</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920689</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453759</v>
       </c>
       <c r="W31" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581389</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058509</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364273</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D32" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
         <v>231.8863097938098</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,7 +3092,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
         <v>236.1938783776016</v>
@@ -3111,22 +3111,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.601020176948964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>79.0306215818444</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453223</v>
+        <v>49.0388704145322</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901078</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>150.1043322867491</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955554</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="35">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>99.76127683363525</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>229.5701121667074</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>48.92726692662036</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.4328844084323</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461439</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,10 +3588,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>19.10479323217249</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>93.71083266259042</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662036</v>
+        <v>49.52817115311553</v>
       </c>
       <c r="V40" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W40" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X40" t="n">
-        <v>113.1122544509813</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>45.30158915123942</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>206.8000834496334</v>
+        <v>5.02370976227946</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.1006484492992</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.4315922434452</v>
       </c>
       <c r="T45" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>72.90005333002388</v>
+        <v>5.02370976227946</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>120.1006484492993</v>
       </c>
       <c r="T46" t="n">
         <v>6.084173352475625</v>
@@ -4201,7 +4201,7 @@
         <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>859.0052310245687</v>
+        <v>854.4278465196039</v>
       </c>
       <c r="C11" t="n">
-        <v>859.0052310245687</v>
+        <v>618.512401329407</v>
       </c>
       <c r="D11" t="n">
-        <v>859.0052310245687</v>
+        <v>618.512401329407</v>
       </c>
       <c r="E11" t="n">
-        <v>859.0052310245687</v>
+        <v>618.512401329407</v>
       </c>
       <c r="F11" t="n">
-        <v>581.066397985176</v>
+        <v>340.5735682900142</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037687</v>
+        <v>295.1224403037688</v>
       </c>
       <c r="H11" t="n">
-        <v>90.4547616460823</v>
+        <v>90.45476164608229</v>
       </c>
       <c r="I11" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020947</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L11" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5057,7 +5057,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5066,25 +5066,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1521.45496289887</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1431.37070624991</v>
+        <v>1365.072875059108</v>
       </c>
       <c r="U11" t="n">
-        <v>1310.573814931832</v>
+        <v>1365.072875059108</v>
       </c>
       <c r="V11" t="n">
-        <v>1112.557999338476</v>
+        <v>1365.072875059108</v>
       </c>
       <c r="W11" t="n">
-        <v>1112.557999338476</v>
+        <v>1365.072875059108</v>
       </c>
       <c r="X11" t="n">
-        <v>1112.557999338476</v>
+        <v>1365.072875059108</v>
       </c>
       <c r="Y11" t="n">
-        <v>1112.557999338476</v>
+        <v>1107.980614833511</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.9118686632564</v>
+        <v>642.7098159295616</v>
       </c>
       <c r="C12" t="n">
-        <v>357.5059111323442</v>
+        <v>601.3038583986494</v>
       </c>
       <c r="D12" t="n">
-        <v>341.6185732213077</v>
+        <v>585.4165204876128</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158522</v>
+        <v>426.1790654821574</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273713</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="G12" t="n">
-        <v>30.433907073934</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H12" t="n">
         <v>30.433907073934</v>
@@ -5118,52 +5118,52 @@
         <v>30.433907073934</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234744</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634076</v>
+        <v>599.6809212073654</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.723818564188</v>
+        <v>976.3005212472985</v>
       </c>
       <c r="O12" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1268.976064197888</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T12" t="n">
-        <v>1067.882194811035</v>
+        <v>1152.219712613949</v>
       </c>
       <c r="U12" t="n">
-        <v>972.723483856742</v>
+        <v>1050.691058128987</v>
       </c>
       <c r="V12" t="n">
-        <v>870.618447375214</v>
+        <v>948.5860216474589</v>
       </c>
       <c r="W12" t="n">
-        <v>749.4281623972272</v>
+        <v>827.3957366694721</v>
       </c>
       <c r="X12" t="n">
-        <v>674.6237339419091</v>
+        <v>752.591308214154</v>
       </c>
       <c r="Y12" t="n">
-        <v>466.8634351769552</v>
+        <v>677.8780811994149</v>
       </c>
     </row>
     <row r="13">
@@ -5197,25 +5197,25 @@
         <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220477</v>
+        <v>69.24603200060885</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>73.07973984615205</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383615</v>
+        <v>263.9114356143801</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835531</v>
+        <v>468.4173394595717</v>
       </c>
       <c r="N13" t="n">
-        <v>821.9059667580935</v>
+        <v>676.5957735341121</v>
       </c>
       <c r="O13" t="n">
-        <v>1008.130600786446</v>
+        <v>862.8204075624645</v>
       </c>
       <c r="P13" t="n">
-        <v>1032.37802040831</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1042.200470031909</v>
+        <v>547.8636211517985</v>
       </c>
       <c r="C14" t="n">
-        <v>806.2850248417117</v>
+        <v>547.8636211517985</v>
       </c>
       <c r="D14" t="n">
-        <v>581.0663979851759</v>
+        <v>547.8636211517985</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851759</v>
+        <v>295.1224403037689</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851759</v>
+        <v>295.1224403037689</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037688</v>
+        <v>295.1224403037689</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608229</v>
+        <v>90.45476164608236</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L14" t="n">
         <v>485.3806706550284</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1403.416047860852</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1282.619156542774</v>
+        <v>1298.927336202168</v>
       </c>
       <c r="V14" t="n">
-        <v>1282.619156542774</v>
+        <v>1298.927336202168</v>
       </c>
       <c r="W14" t="n">
-        <v>1282.619156542774</v>
+        <v>1298.927336202168</v>
       </c>
       <c r="X14" t="n">
-        <v>1042.200470031909</v>
+        <v>1058.508649691302</v>
       </c>
       <c r="Y14" t="n">
-        <v>1042.200470031909</v>
+        <v>801.4163894657055</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>382.9856159598004</v>
+        <v>431.6951699071017</v>
       </c>
       <c r="C15" t="n">
-        <v>341.5796584288881</v>
+        <v>390.2892123761893</v>
       </c>
       <c r="D15" t="n">
-        <v>325.6923205178516</v>
+        <v>374.4018744651527</v>
       </c>
       <c r="E15" t="n">
-        <v>299.5019372626109</v>
+        <v>293.1319937319427</v>
       </c>
       <c r="F15" t="n">
-        <v>249.8593185385238</v>
+        <v>146.5974357588277</v>
       </c>
       <c r="G15" t="n">
-        <v>111.399593619506</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H15" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K15" t="n">
-        <v>198.6970944041448</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3521110234744</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M15" t="n">
-        <v>862.9717110634076</v>
+        <v>694.7085237331969</v>
       </c>
       <c r="N15" t="n">
-        <v>1185.002115453613</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O15" t="n">
         <v>1185.002115453613</v>
@@ -5379,28 +5379,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1152.219712613948</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>924.0139299094404</v>
+        <v>972.723483856742</v>
       </c>
       <c r="V15" t="n">
-        <v>821.9088934279125</v>
+        <v>737.5713756249993</v>
       </c>
       <c r="W15" t="n">
-        <v>567.6715366997109</v>
+        <v>616.3810906470123</v>
       </c>
       <c r="X15" t="n">
-        <v>492.8671082443929</v>
+        <v>541.5766621916943</v>
       </c>
       <c r="Y15" t="n">
-        <v>418.1538812296537</v>
+        <v>466.863435176955</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858032</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.562530308111</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.49296264599</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138115</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661159</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946801</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184306</v>
+        <v>47.57254097184313</v>
       </c>
       <c r="I16" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220477</v>
+        <v>84.15679020220472</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>203.4791748685389</v>
       </c>
       <c r="L16" t="n">
-        <v>278.822193815976</v>
+        <v>394.3108706367669</v>
       </c>
       <c r="M16" t="n">
-        <v>483.3280976611676</v>
+        <v>598.8167744819584</v>
       </c>
       <c r="N16" t="n">
-        <v>691.506531735708</v>
+        <v>806.9952085564988</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624645</v>
+        <v>862.8204075624657</v>
       </c>
       <c r="P16" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571224</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856999</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877742</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493644</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936922</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069463</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591437</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658283</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.433907073934</v>
@@ -5513,16 +5513,16 @@
         <v>30.433907073934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020947</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L17" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5555,7 +5555,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y17" t="n">
         <v>1019.301067000648</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>406.8685612538723</v>
+        <v>462.1723698442665</v>
       </c>
       <c r="C18" t="n">
-        <v>406.8685612538723</v>
+        <v>287.7193405631396</v>
       </c>
       <c r="D18" t="n">
-        <v>257.934151592621</v>
+        <v>287.7193405631396</v>
       </c>
       <c r="E18" t="n">
-        <v>257.934151592621</v>
+        <v>287.7193405631396</v>
       </c>
       <c r="F18" t="n">
-        <v>111.399593619506</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="G18" t="n">
-        <v>111.399593619506</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I18" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J18" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L18" t="n">
-        <v>486.3521110234744</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="M18" t="n">
-        <v>862.9717110634076</v>
+        <v>496.4109802811682</v>
       </c>
       <c r="N18" t="n">
         <v>873.0305803211014</v>
@@ -5616,28 +5616,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S18" t="n">
-        <v>1298.165868838388</v>
+        <v>1380.861486895571</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.071999451535</v>
+        <v>1179.767617508719</v>
       </c>
       <c r="U18" t="n">
-        <v>868.8662167470277</v>
+        <v>951.5618348042108</v>
       </c>
       <c r="V18" t="n">
-        <v>868.8662167470277</v>
+        <v>716.4097265724681</v>
       </c>
       <c r="W18" t="n">
-        <v>614.6288600188261</v>
+        <v>462.1723698442665</v>
       </c>
       <c r="X18" t="n">
-        <v>614.6288600188261</v>
+        <v>462.1723698442665</v>
       </c>
       <c r="Y18" t="n">
-        <v>406.8685612538723</v>
+        <v>462.1723698442665</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="C19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="D19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="E19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="F19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="G19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
       <c r="H19" t="n">
         <v>30.433907073934</v>
@@ -5677,7 +5677,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531982</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
@@ -5689,34 +5689,34 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="S19" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="U19" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240509</v>
       </c>
       <c r="V19" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627276</v>
       </c>
       <c r="W19" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="X19" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.433907073934</v>
+        <v>192.2789982817736</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810905</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852424</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230555</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.433907073934</v>
@@ -5750,25 +5750,25 @@
         <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.937268332656</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550288</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N20" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O20" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
         <v>1521.6953536967</v>
@@ -5783,10 +5783,10 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W20" t="n">
         <v>1303.351633548413</v>
@@ -5795,7 +5795,7 @@
         <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>370.732431086137</v>
+        <v>176.968465047049</v>
       </c>
       <c r="C21" t="n">
-        <v>370.732431086137</v>
+        <v>176.968465047049</v>
       </c>
       <c r="D21" t="n">
-        <v>370.732431086137</v>
+        <v>176.968465047049</v>
       </c>
       <c r="E21" t="n">
-        <v>211.4949760806815</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F21" t="n">
-        <v>211.4949760806815</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I21" t="n">
         <v>30.433907073934</v>
@@ -5832,13 +5832,13 @@
         <v>54.79813383722131</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674321</v>
+        <v>223.0613211674322</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867617</v>
+        <v>510.7163377867618</v>
       </c>
       <c r="M21" t="n">
-        <v>887.3359378266949</v>
+        <v>808.3825154136799</v>
       </c>
       <c r="N21" t="n">
         <v>1185.002115453613</v>
@@ -5853,28 +5853,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1437.357835893786</v>
+        <v>1478.390848702056</v>
       </c>
       <c r="S21" t="n">
-        <v>1268.976064197888</v>
+        <v>1478.390848702056</v>
       </c>
       <c r="T21" t="n">
-        <v>1067.882194811035</v>
+        <v>1478.390848702056</v>
       </c>
       <c r="U21" t="n">
-        <v>1067.882194811035</v>
+        <v>1250.185065997548</v>
       </c>
       <c r="V21" t="n">
-        <v>832.7300865792924</v>
+        <v>1015.032957765805</v>
       </c>
       <c r="W21" t="n">
-        <v>578.4927298510909</v>
+        <v>760.7956010376038</v>
       </c>
       <c r="X21" t="n">
-        <v>578.4927298510909</v>
+        <v>552.9441008320709</v>
       </c>
       <c r="Y21" t="n">
-        <v>370.732431086137</v>
+        <v>345.1838020671171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="C22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="D22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="E22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="F22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="G22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="H22" t="n">
-        <v>30.433907073934</v>
+        <v>50.84425466249101</v>
       </c>
       <c r="I22" t="n">
         <v>30.433907073934</v>
@@ -5914,7 +5914,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531982</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
@@ -5926,34 +5926,34 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681119</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240509</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627274</v>
+        <v>262.3292540627276</v>
       </c>
       <c r="W22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="X22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703306</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>30.433907073934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L23" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,7 +6005,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>257.934151592621</v>
+        <v>798.0530839139007</v>
       </c>
       <c r="C24" t="n">
-        <v>257.934151592621</v>
+        <v>623.6000546327737</v>
       </c>
       <c r="D24" t="n">
-        <v>257.934151592621</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="E24" t="n">
-        <v>257.934151592621</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F24" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G24" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I24" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722131</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K24" t="n">
-        <v>223.0613211674321</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7163377867617</v>
+        <v>119.7913802412351</v>
       </c>
       <c r="M24" t="n">
-        <v>887.3359378266949</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="N24" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533886</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T24" t="n">
-        <v>1320.601484309847</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U24" t="n">
-        <v>1092.395701605339</v>
+        <v>1396.340314788093</v>
       </c>
       <c r="V24" t="n">
-        <v>857.2435933735967</v>
+        <v>1396.340314788093</v>
       </c>
       <c r="W24" t="n">
-        <v>673.5459505631077</v>
+        <v>1381.880219904455</v>
       </c>
       <c r="X24" t="n">
-        <v>465.6944503575749</v>
+        <v>1174.028719698922</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.934151592621</v>
+        <v>966.2684209339686</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="C25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="D25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="E25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="F25" t="n">
-        <v>30.433907073934</v>
+        <v>65.79939837241994</v>
       </c>
       <c r="G25" t="n">
-        <v>30.433907073934</v>
+        <v>65.79939837241994</v>
       </c>
       <c r="H25" t="n">
         <v>30.433907073934</v>
@@ -6148,7 +6148,7 @@
         <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531981</v>
@@ -6157,40 +6157,40 @@
         <v>168.8063444881259</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V25" t="n">
         <v>262.3292540627274</v>
       </c>
       <c r="W25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607513</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028707</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601844</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754845</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450455</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906316</v>
@@ -6236,13 +6236,13 @@
         <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
         <v>2734.936491467168</v>
@@ -6251,25 +6251,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061231</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508977</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>389.0165717256457</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C27" t="n">
-        <v>214.5635424445186</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D27" t="n">
-        <v>214.5635424445186</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E27" t="n">
-        <v>55.32608743906316</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
         <v>55.32608743906316</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1901.221085316631</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1884.398970467653</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1690.438955380652</v>
+        <v>1834.348266168098</v>
       </c>
       <c r="U27" t="n">
-        <v>1462.233172676145</v>
+        <v>1606.14248346359</v>
       </c>
       <c r="V27" t="n">
-        <v>1227.081064444402</v>
+        <v>1370.990375231847</v>
       </c>
       <c r="W27" t="n">
-        <v>972.8437077162005</v>
+        <v>1116.753018503646</v>
       </c>
       <c r="X27" t="n">
-        <v>764.9922075106676</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y27" t="n">
-        <v>557.2319087457138</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.31218528794294</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93565920695725</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93565920695725</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695725</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992282</v>
@@ -6379,55 +6379,55 @@
         <v>55.32608743906316</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900451</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J28" t="n">
-        <v>128.5397647905573</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K28" t="n">
-        <v>226.9889649030353</v>
+        <v>131.0268630661591</v>
       </c>
       <c r="L28" t="n">
-        <v>435.9648453245454</v>
+        <v>340.0027434876692</v>
       </c>
       <c r="M28" t="n">
-        <v>658.614933823019</v>
+        <v>414.1092123104754</v>
       </c>
       <c r="N28" t="n">
-        <v>736.393932875174</v>
+        <v>491.8882113626303</v>
       </c>
       <c r="O28" t="n">
-        <v>792.2191318811408</v>
+        <v>696.2570300442646</v>
       </c>
       <c r="P28" t="n">
-        <v>816.4665515030048</v>
+        <v>739.1471376181795</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.4665515030048</v>
+        <v>821.0433336359703</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1613796457984</v>
+        <v>803.7381617787639</v>
       </c>
       <c r="S28" t="n">
-        <v>728.4025421108939</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T28" t="n">
-        <v>650.6852409096748</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U28" t="n">
-        <v>513.0461541679715</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V28" t="n">
-        <v>409.9213228090058</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W28" t="n">
-        <v>272.0638096189664</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X28" t="n">
-        <v>195.6339155678703</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.4009932712614</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607513</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028721</v>
+        <v>809.8470710028707</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601845</v>
       </c>
       <c r="G29" t="n">
-        <v>282.989450475485</v>
+        <v>282.9894504754839</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450497</v>
+        <v>96.83435691450455</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491198</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L29" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471603</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606062</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831067</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
@@ -6491,22 +6491,22 @@
         <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287605</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>497.1422000560662</v>
+        <v>769.3395489225497</v>
       </c>
       <c r="C30" t="n">
-        <v>474.2488276218604</v>
+        <v>594.8865196414228</v>
       </c>
       <c r="D30" t="n">
-        <v>325.3144179606091</v>
+        <v>445.9521099801715</v>
       </c>
       <c r="E30" t="n">
-        <v>166.0769629551536</v>
+        <v>286.714654974716</v>
       </c>
       <c r="F30" t="n">
-        <v>166.0769629551536</v>
+        <v>140.180097001601</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0769629551536</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K30" t="n">
         <v>247.9535015325613</v>
@@ -6567,25 +6567,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S30" t="n">
-        <v>1848.098796251004</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T30" t="n">
-        <v>1647.004926864152</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U30" t="n">
-        <v>1418.799144159644</v>
+        <v>1842.556149873049</v>
       </c>
       <c r="V30" t="n">
-        <v>1183.647035927901</v>
+        <v>1607.404041641306</v>
       </c>
       <c r="W30" t="n">
-        <v>929.4096791996997</v>
+        <v>1353.166684913105</v>
       </c>
       <c r="X30" t="n">
-        <v>721.5581789941668</v>
+        <v>1145.315184707572</v>
       </c>
       <c r="Y30" t="n">
-        <v>513.797880229213</v>
+        <v>937.5548859426178</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.31218528794295</v>
+        <v>100.8889674209083</v>
       </c>
       <c r="C31" t="n">
-        <v>78.93565920695727</v>
+        <v>83.5124413399227</v>
       </c>
       <c r="D31" t="n">
-        <v>78.93565920695727</v>
+        <v>83.5124413399227</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695727</v>
+        <v>83.5124413399227</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992283</v>
+        <v>83.5124413399227</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998152</v>
+        <v>65.61152179998145</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32608743906317</v>
+        <v>127.193155220616</v>
       </c>
       <c r="K31" t="n">
-        <v>78.4453452273678</v>
+        <v>231.5657470359999</v>
       </c>
       <c r="L31" t="n">
-        <v>287.4212256488779</v>
+        <v>440.5416274575101</v>
       </c>
       <c r="M31" t="n">
-        <v>510.0713141473515</v>
+        <v>663.1917159559838</v>
       </c>
       <c r="N31" t="n">
-        <v>736.393932875174</v>
+        <v>740.9707150081388</v>
       </c>
       <c r="O31" t="n">
-        <v>792.2191318811408</v>
+        <v>796.7959140141056</v>
       </c>
       <c r="P31" t="n">
-        <v>816.4665515030048</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.4665515030048</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="R31" t="n">
-        <v>799.1613796457984</v>
+        <v>803.7381617787634</v>
       </c>
       <c r="S31" t="n">
-        <v>728.4025421108939</v>
+        <v>732.9793242438589</v>
       </c>
       <c r="T31" t="n">
-        <v>650.6852409096748</v>
+        <v>655.2620230426397</v>
       </c>
       <c r="U31" t="n">
-        <v>513.0461541679715</v>
+        <v>517.6229363009365</v>
       </c>
       <c r="V31" t="n">
-        <v>409.9213228090058</v>
+        <v>414.498104941971</v>
       </c>
       <c r="W31" t="n">
-        <v>272.0638096189664</v>
+        <v>276.6405917519317</v>
       </c>
       <c r="X31" t="n">
-        <v>195.6339155678703</v>
+        <v>200.2106977008356</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.4009932712614</v>
+        <v>130.9777754042267</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607513</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028712</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G32" t="n">
         <v>282.9894504754843</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491196</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471597</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6719,31 +6719,31 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467169</v>
+        <v>2734.936491467168</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287607</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953606</v>
+        <v>1941.804426953604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>466.2202352287075</v>
+        <v>674.0108546177786</v>
       </c>
       <c r="C33" t="n">
-        <v>291.7672059475805</v>
+        <v>499.5578253366515</v>
       </c>
       <c r="D33" t="n">
-        <v>142.8327962863292</v>
+        <v>499.5578253366515</v>
       </c>
       <c r="E33" t="n">
-        <v>135.1549981277949</v>
+        <v>340.320370331196</v>
       </c>
       <c r="F33" t="n">
-        <v>135.1549981277949</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G33" t="n">
-        <v>135.1549981277949</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="H33" t="n">
-        <v>135.1549981277949</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
@@ -6810,19 +6810,19 @@
         <v>1767.642618883714</v>
       </c>
       <c r="U33" t="n">
-        <v>1539.436836179206</v>
+        <v>1690.996493026128</v>
       </c>
       <c r="V33" t="n">
-        <v>1304.284727947464</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W33" t="n">
-        <v>1050.047371219262</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>842.1958710137294</v>
+        <v>1049.9864904028</v>
       </c>
       <c r="Y33" t="n">
-        <v>634.4355722487755</v>
+        <v>842.2261916378466</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474187</v>
+        <v>91.32388724474168</v>
       </c>
       <c r="C34" t="n">
-        <v>73.94736116375616</v>
+        <v>73.947361163756</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139338</v>
+        <v>75.36166255139325</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695735</v>
+        <v>78.93565920695725</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992282</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998155</v>
+        <v>65.6115217999815</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906316</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900449</v>
+        <v>56.67269700900451</v>
       </c>
       <c r="J34" t="n">
         <v>128.5397647905573</v>
       </c>
       <c r="K34" t="n">
-        <v>280.9170923117679</v>
+        <v>280.917092311768</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8929727332779</v>
+        <v>341.3493530576106</v>
       </c>
       <c r="M34" t="n">
-        <v>571.7304397620273</v>
+        <v>415.4558218804167</v>
       </c>
       <c r="N34" t="n">
-        <v>649.5094388141823</v>
+        <v>641.7784406082391</v>
       </c>
       <c r="O34" t="n">
-        <v>705.3346378201492</v>
+        <v>697.6036396142059</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420131</v>
+        <v>729.5820574420128</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.4782534598039</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R34" t="n">
-        <v>794.1730816025976</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676929</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664738</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247705</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658048</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757654</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X34" t="n">
-        <v>190.6456175246693</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.4126952280604</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810893</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852411</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230543</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693737</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243296</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
         <v>1521.6953536967</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.7193405631396</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C36" t="n">
-        <v>287.7193405631396</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D36" t="n">
-        <v>287.7193405631396</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E36" t="n">
-        <v>287.7193405631396</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F36" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G36" t="n">
-        <v>141.1847825900245</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K36" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M36" t="n">
-        <v>694.7085237331968</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N36" t="n">
-        <v>1071.32812377313</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O36" t="n">
-        <v>1383.299658905642</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
@@ -7044,22 +7044,22 @@
         <v>1521.6953536967</v>
       </c>
       <c r="T36" t="n">
-        <v>1420.926387198078</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U36" t="n">
-        <v>1192.720604493571</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="V36" t="n">
-        <v>957.5684962618279</v>
+        <v>1289.806351508106</v>
       </c>
       <c r="W36" t="n">
-        <v>703.3311395336264</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="X36" t="n">
-        <v>495.4796393280935</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y36" t="n">
-        <v>287.7193405631396</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L37" t="n">
         <v>94.69987566531981</v>
@@ -7105,40 +7105,40 @@
         <v>168.8063444881259</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402809</v>
+        <v>246.5853435402808</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462478</v>
+        <v>302.4105425462477</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681118</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T37" t="n">
-        <v>144.4025233717154</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U37" t="n">
-        <v>94.98104162765442</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V37" t="n">
-        <v>80.07381526633108</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W37" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X37" t="n">
-        <v>30.433907073934</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810906</v>
+        <v>872.4784887810908</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852425</v>
+        <v>743.2932336852429</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230556</v>
+        <v>624.804796923056</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693749</v>
+        <v>478.7938061693753</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243309</v>
+        <v>307.5851632243313</v>
       </c>
       <c r="G38" t="n">
         <v>128.3713956372717</v>
@@ -7181,7 +7181,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7199,7 +7199,7 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T38" t="n">
         <v>1521.695353696701</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.8213460163123</v>
+        <v>532.3565719633561</v>
       </c>
       <c r="C39" t="n">
-        <v>179.3683167351853</v>
+        <v>357.9035426822292</v>
       </c>
       <c r="D39" t="n">
-        <v>30.43390707393401</v>
+        <v>208.9691330209779</v>
       </c>
       <c r="E39" t="n">
-        <v>30.43390707393401</v>
+        <v>49.73167801552239</v>
       </c>
       <c r="F39" t="n">
         <v>30.43390707393401</v>
@@ -7254,19 +7254,19 @@
         <v>30.43390707393401</v>
       </c>
       <c r="K39" t="n">
-        <v>198.6970944041448</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3521110234744</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M39" t="n">
-        <v>862.9717110634078</v>
+        <v>694.7085237331969</v>
       </c>
       <c r="N39" t="n">
-        <v>1239.591311103341</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.313760533886</v>
+        <v>1383.299658905642</v>
       </c>
       <c r="P39" t="n">
         <v>1521.695353696701</v>
@@ -7275,28 +7275,28 @@
         <v>1521.695353696701</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.695353696701</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.695353696701</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.695353696701</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="U39" t="n">
-        <v>1427.037946966811</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.885838735069</v>
+        <v>1202.205727662044</v>
       </c>
       <c r="W39" t="n">
-        <v>937.648482006867</v>
+        <v>947.9683709338428</v>
       </c>
       <c r="X39" t="n">
-        <v>729.7969818013341</v>
+        <v>740.11687072831</v>
       </c>
       <c r="Y39" t="n">
-        <v>522.0366830363803</v>
+        <v>532.3565719633561</v>
       </c>
     </row>
     <row r="40">
@@ -7333,10 +7333,10 @@
         <v>30.43390707393401</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947721</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531984</v>
+        <v>94.69987566531982</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7348,34 +7348,34 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="Q40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="R40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="S40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="T40" t="n">
-        <v>258.657325847454</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="U40" t="n">
-        <v>209.2358441033931</v>
+        <v>276.6295064578941</v>
       </c>
       <c r="V40" t="n">
-        <v>194.3286177420698</v>
+        <v>261.7222800965708</v>
       </c>
       <c r="W40" t="n">
-        <v>144.6887095496727</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393401</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393401</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829039</v>
+        <v>976.4306445829031</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416673</v>
+        <v>830.5994560416664</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340918</v>
+        <v>695.465085834091</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350227</v>
+        <v>532.8081616350222</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445902</v>
+        <v>344.9535852445897</v>
       </c>
       <c r="G41" t="n">
         <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890038</v>
+        <v>63.97560257890037</v>
       </c>
       <c r="J41" t="n">
-        <v>139.987613209413</v>
+        <v>139.9876132094125</v>
       </c>
       <c r="K41" t="n">
-        <v>306.172280461859</v>
+        <v>306.1722804618586</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842317</v>
+        <v>564.6156827842312</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533057</v>
+        <v>868.7903100533052</v>
       </c>
       <c r="N41" t="n">
         <v>1163.254803250562</v>
@@ -7442,19 +7442,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824486</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>819.3931718239191</v>
+        <v>562.8945371120985</v>
       </c>
       <c r="C42" t="n">
-        <v>819.3931718239191</v>
+        <v>388.4415078309715</v>
       </c>
       <c r="D42" t="n">
-        <v>670.4587621626679</v>
+        <v>239.5070981697203</v>
       </c>
       <c r="E42" t="n">
-        <v>511.2213071572123</v>
+        <v>80.26964316426478</v>
       </c>
       <c r="F42" t="n">
-        <v>364.6867491840973</v>
+        <v>80.26964316426478</v>
       </c>
       <c r="G42" t="n">
-        <v>226.2270242650794</v>
+        <v>80.26964316426478</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J42" t="n">
-        <v>58.8746889667042</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K42" t="n">
-        <v>58.8746889667042</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="L42" t="n">
-        <v>275.5730252031904</v>
+        <v>322.1654788227464</v>
       </c>
       <c r="M42" t="n">
-        <v>663.232083427653</v>
+        <v>709.8245370472091</v>
       </c>
       <c r="N42" t="n">
-        <v>1076.858336795246</v>
+        <v>1123.450790414802</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.829871927757</v>
+        <v>1435.422325547313</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.211465090571</v>
+        <v>1668.803918710127</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.18559236793</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.18559236793</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.18559236793</v>
       </c>
       <c r="U42" t="n">
-        <v>1516.634136989396</v>
+        <v>1636.111138062598</v>
       </c>
       <c r="V42" t="n">
-        <v>1281.482028757654</v>
+        <v>1400.959029830855</v>
       </c>
       <c r="W42" t="n">
-        <v>1027.244672029452</v>
+        <v>1146.721673102653</v>
       </c>
       <c r="X42" t="n">
-        <v>819.3931718239191</v>
+        <v>938.8701728971205</v>
       </c>
       <c r="Y42" t="n">
-        <v>819.3931718239191</v>
+        <v>731.1098741321666</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480269</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
         <v>330.7345172975947</v>
@@ -7597,7 +7597,7 @@
         <v>330.7345172975947</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486295</v>
+        <v>324.5888876486294</v>
       </c>
       <c r="U43" t="n">
         <v>258.52147245918</v>
@@ -7606,13 +7606,13 @@
         <v>226.9683126524682</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146827</v>
+        <v>160.6824710146826</v>
       </c>
       <c r="X43" t="n">
         <v>155.8242485158404</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829037</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416671</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340917</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350224</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445899</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890038</v>
+        <v>63.97560257890037</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517594</v>
+        <v>139.9876132094125</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>306.1722804618586</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599947</v>
+        <v>564.6156827842312</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533057</v>
+        <v>868.7903100533052</v>
       </c>
       <c r="N44" t="n">
         <v>1163.254803250562</v>
@@ -7682,10 +7682,10 @@
         <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
         <v>1306.907159824487</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>753.6430595540186</v>
+        <v>493.9577743766768</v>
       </c>
       <c r="C45" t="n">
-        <v>579.1900302728916</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="D45" t="n">
-        <v>430.2556206116403</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="E45" t="n">
-        <v>430.2556206116403</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F45" t="n">
-        <v>283.7210626385253</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
-        <v>145.2613377195074</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J45" t="n">
-        <v>58.8746889667042</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K45" t="n">
-        <v>58.8746889667042</v>
+        <v>91.22965366413348</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5297055860337</v>
+        <v>378.884670283463</v>
       </c>
       <c r="M45" t="n">
-        <v>734.1887638104964</v>
+        <v>766.5437285079257</v>
       </c>
       <c r="N45" t="n">
-        <v>1147.815017178089</v>
+        <v>1180.169981875518</v>
       </c>
       <c r="O45" t="n">
-        <v>1388.829871927757</v>
+        <v>1492.14151700803</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090571</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
@@ -7752,25 +7752,25 @@
         <v>1725.523110170844</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1565.491198813829</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.429240783991</v>
+        <v>1364.397329426976</v>
       </c>
       <c r="U45" t="n">
-        <v>1450.792823278917</v>
+        <v>1359.322875121643</v>
       </c>
       <c r="V45" t="n">
-        <v>1215.640715047174</v>
+        <v>1124.1707668899</v>
       </c>
       <c r="W45" t="n">
-        <v>961.4033583189726</v>
+        <v>869.9334101616987</v>
       </c>
       <c r="X45" t="n">
-        <v>961.4033583189726</v>
+        <v>869.9334101616987</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.6430595540186</v>
+        <v>662.1731113967448</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480269</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757307</v>
+        <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
         <v>330.7345172975947</v>
@@ -7831,25 +7831,25 @@
         <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>209.4207309851712</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486295</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524682</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146827</v>
+        <v>39.36868470225913</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341688</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341688</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565152</v>
       </c>
       <c r="M12" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N12" t="n">
-        <v>411.7927320538444</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>289.5492476341062</v>
       </c>
       <c r="P12" t="n">
-        <v>82.72378564719548</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751714</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,10 +9015,10 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>386.8213147704349</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>78.73955651661683</v>
+        <v>193.5617703352864</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565152</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>350.2410242442154</v>
       </c>
       <c r="N18" t="n">
-        <v>71.69855201032249</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868388</v>
+        <v>374.8031641565206</v>
       </c>
       <c r="N21" t="n">
-        <v>362.2109847065086</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O21" t="n">
-        <v>78.73955651661683</v>
+        <v>78.73955651661682</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>170.5397963620162</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N24" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>103.3438218370789</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>441.9619164368269</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>234.72760777904</v>
       </c>
       <c r="P36" t="n">
-        <v>222.5174167492746</v>
+        <v>82.7237856471955</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>441.9619164368271</v>
       </c>
       <c r="O39" t="n">
-        <v>127.9541519010058</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>222.5174167492751</v>
       </c>
       <c r="Q39" t="n">
         <v>105.7220906850686</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K42" t="n">
         <v>94.50242152751716</v>
       </c>
       <c r="L42" t="n">
-        <v>299.1669307753345</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>163.0142032716509</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>94.50242152751716</v>
+        <v>151.7945341140996</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>322.188904748605</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>222.9664405879704</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>238.0879013982102</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.63485287889506</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
         <v>217.5243676847004</v>
@@ -23324,7 +23324,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>37.9597410737278</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>54.10483893652775</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374224</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953242.785817647</v>
+        <v>953242.7858176471</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
         <v>491565.803230223</v>
@@ -26320,22 +26320,22 @@
         <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
-        <v>421824.1306990089</v>
+        <v>421824.130699009</v>
       </c>
       <c r="F2" t="n">
         <v>421824.1306990089</v>
       </c>
       <c r="G2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="H2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="K2" t="n">
         <v>492625.0619185697</v>
@@ -26347,13 +26347,13 @@
         <v>492625.06191857</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185696</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185696</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.31055472432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472427</v>
       </c>
       <c r="M3" t="n">
         <v>87131.09894239521</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510449</v>
+        <v>34584.19673510444</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>310803.6100166999</v>
+        <v>310803.6100166998</v>
       </c>
       <c r="F4" t="n">
         <v>310803.6100166998</v>
       </c>
       <c r="G4" t="n">
-        <v>377919.8023185456</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="H4" t="n">
         <v>377919.8023185457</v>
       </c>
       <c r="I4" t="n">
-        <v>377919.8023185456</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="J4" t="n">
         <v>376828.4269773418</v>
@@ -26445,13 +26445,13 @@
         <v>376828.4269773418</v>
       </c>
       <c r="L4" t="n">
-        <v>376828.4269773417</v>
+        <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
-        <v>377919.8023185456</v>
+        <v>377919.8023185457</v>
       </c>
       <c r="N4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="O4" t="n">
         <v>376989.2813831306</v>
@@ -26494,13 +26494,13 @@
         <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21664.32351097474</v>
+        <v>21659.90993310669</v>
       </c>
       <c r="C6" t="n">
-        <v>21664.3235109748</v>
+        <v>21659.90993310669</v>
       </c>
       <c r="D6" t="n">
-        <v>21664.3235109748</v>
+        <v>21659.90993310674</v>
       </c>
       <c r="E6" t="n">
-        <v>-245108.8276034644</v>
+        <v>-245403.8314835458</v>
       </c>
       <c r="F6" t="n">
-        <v>74097.31731552599</v>
+        <v>73802.31343544454</v>
       </c>
       <c r="G6" t="n">
-        <v>-15631.22766901428</v>
+        <v>-15631.22766901439</v>
       </c>
       <c r="H6" t="n">
-        <v>68899.08288570979</v>
+        <v>68899.08288570974</v>
       </c>
       <c r="I6" t="n">
-        <v>68899.08288570979</v>
+        <v>68899.08288570985</v>
       </c>
       <c r="J6" t="n">
-        <v>-58501.45483559401</v>
+        <v>-58501.45483559413</v>
       </c>
       <c r="K6" t="n">
-        <v>58414.6033256166</v>
+        <v>58414.60332561654</v>
       </c>
       <c r="L6" t="n">
-        <v>-26115.7072291077</v>
+        <v>-26115.70722910781</v>
       </c>
       <c r="M6" t="n">
-        <v>-18232.01605668539</v>
+        <v>-18232.01605668544</v>
       </c>
       <c r="N6" t="n">
-        <v>68899.08288571003</v>
+        <v>68899.0828857095</v>
       </c>
       <c r="O6" t="n">
-        <v>33532.63809664513</v>
+        <v>33532.63809664518</v>
       </c>
       <c r="P6" t="n">
-        <v>68116.8348317495</v>
+        <v>68116.83483174967</v>
       </c>
     </row>
   </sheetData>
@@ -26695,13 +26695,13 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G2" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
         <v>237.3794892261179</v>
@@ -26710,7 +26710,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26756,28 +26756,28 @@
         <v>124.7775714850541</v>
       </c>
       <c r="I3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="K3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="L3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="N3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="O3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
       <c r="P3" t="n">
-        <v>124.7775714850541</v>
+        <v>124.777571485054</v>
       </c>
     </row>
     <row r="4">
@@ -26799,7 +26799,7 @@
         <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="G4" t="n">
         <v>380.423838424175</v>
@@ -26814,13 +26814,13 @@
         <v>691.5760929882895</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882895</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>380.4238384241751</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766592</v>
+        <v>87.33542894766589</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411212</v>
+        <v>27.9016979741121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.9569391185359</v>
+        <v>50.95693911853584</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.26113280130556</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
         <v>131.7166010327126</v>
@@ -28181,10 +28181,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>125.4103569373508</v>
       </c>
       <c r="V12" t="n">
         <v>131.7166010327126</v>
@@ -28235,7 +28235,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="13">
@@ -28269,10 +28269,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119086</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327126</v>
@@ -28287,10 +28287,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.6552291119086</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327126</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E15" t="n">
-        <v>131.7166010327126</v>
+        <v>77.18789852952304</v>
       </c>
       <c r="F15" t="n">
-        <v>95.92301985653773</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28460,19 +28460,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="D16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="E16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="H16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119101</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="O16" t="n">
-        <v>116.6552291119087</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="S16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="T16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="U16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="V16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="W16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="X16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327125</v>
       </c>
     </row>
     <row r="17">
@@ -28643,10 +28643,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28658,10 +28658,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>28.89790659409545</v>
+        <v>27.27242584582237</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28737,7 +28737,7 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H19" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>148.6838485916426</v>
@@ -28770,7 +28770,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
-        <v>39.6624250295751</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>198.3784092394234</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28886,19 +28886,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>37.98069903326396</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.62268268018657</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28974,10 +28974,10 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H22" t="n">
-        <v>160.2266402957612</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>148.6838485916426</v>
+        <v>128.4776044789711</v>
       </c>
       <c r="J22" t="n">
         <v>77.45106251930777</v>
@@ -29013,13 +29013,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>56.94660481768551</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>185.3163789828266</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>69.83431677853548</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29205,13 +29205,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
       </c>
       <c r="H25" t="n">
-        <v>160.2266402957612</v>
+        <v>125.2148039102601</v>
       </c>
       <c r="I25" t="n">
         <v>148.6838485916426</v>
@@ -29256,7 +29256,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>56.94660481768551</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29357,13 +29357,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
-        <v>7.06251575685323</v>
+        <v>66.03859081153951</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="K28" t="n">
-        <v>95.57120431003518</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>18.8309979313645</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745122</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="J29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="O29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="R29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -29600,13 +29600,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>53.06965820291526</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
         <v>80.15602968011626</v>
@@ -29639,13 +29639,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>30.61274517908507</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -29679,31 +29679,31 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I31" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45106251930777</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K31" t="n">
-        <v>19.4803534775368</v>
+        <v>101.5544282523644</v>
       </c>
       <c r="L31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>67.32062995745122</v>
       </c>
       <c r="R31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
@@ -29788,7 +29788,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.0440602784525</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q32" t="n">
         <v>150.044060278452</v>
@@ -29831,22 +29831,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>1.125408098271862</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>55.66865291672838</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29934,19 +29934,19 @@
         <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="M34" t="n">
-        <v>7.809089096912444</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>7.809089096911993</v>
       </c>
       <c r="Q34" t="n">
         <v>150.044060278452</v>
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
         <v>80.15602968011626</v>
@@ -30116,19 +30116,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>99.32165385934896</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3.230474982717823</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>46.55130405922654</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
         <v>237.3794892261179</v>
@@ -30210,7 +30210,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366246</v>
       </c>
     </row>
     <row r="38">
@@ -30271,10 +30271,10 @@
         <v>118.359332514826</v>
       </c>
       <c r="S38" t="n">
-        <v>197.5894408014596</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T38" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="U38" t="n">
         <v>237.3794892261179</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30308,10 +30308,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9644191612114</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
@@ -30356,7 +30356,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>132.2128922148723</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
@@ -30435,7 +30435,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>236.7785849996228</v>
       </c>
       <c r="V40" t="n">
         <v>237.3794892261179</v>
@@ -30444,7 +30444,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
-        <v>112.5974009380559</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30481,7 +30481,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700709</v>
+        <v>46.15486527700662</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>64.34177760969015</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
@@ -30593,7 +30593,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>19.12364142782937</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30633,7 +30633,7 @@
         <v>167.7659706229939</v>
       </c>
       <c r="H43" t="n">
-        <v>160.2266402957612</v>
+        <v>40.12599184646193</v>
       </c>
       <c r="I43" t="n">
         <v>148.6838485916426</v>
@@ -30684,7 +30684,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.4840049027955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30718,7 +30718,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.15486527700662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>46.15486527700705</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
         <v>80.15602968011626</v>
@@ -30824,13 +30824,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>8.266361735494456</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>153.0236715474389</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S46" t="n">
-        <v>220.0953094380075</v>
+        <v>99.99466098870826</v>
       </c>
       <c r="T46" t="n">
         <v>220.9000151151833</v>
@@ -30921,7 +30921,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.4840049027955</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31759,19 +31759,19 @@
         <v>19.33864251126652</v>
       </c>
       <c r="J11" t="n">
-        <v>42.5742327952949</v>
+        <v>42.57423279529491</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881185</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930722</v>
       </c>
       <c r="M11" t="n">
         <v>88.07979798603014</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203784</v>
       </c>
       <c r="O11" t="n">
         <v>84.5170534574971</v>
@@ -31780,7 +31780,7 @@
         <v>72.1333497548347</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882063</v>
       </c>
       <c r="R11" t="n">
         <v>31.50978542632373</v>
@@ -31789,10 +31789,10 @@
         <v>11.43062878478661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948036</v>
+        <v>2.195834448948037</v>
       </c>
       <c r="U11" t="n">
-        <v>0.040129470226349</v>
+        <v>0.04012947022634901</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,34 +31832,34 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566878</v>
+        <v>2.592077475566879</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298817</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018444</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684184</v>
+        <v>43.33901744684185</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422267</v>
       </c>
       <c r="M12" t="n">
         <v>68.00377645935446</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068134</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782761</v>
+        <v>63.85668792782762</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713475</v>
+        <v>51.25062176713476</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095297</v>
       </c>
       <c r="R12" t="n">
         <v>16.66369152775874</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648516</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I13" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736501</v>
       </c>
       <c r="K13" t="n">
         <v>26.1419239930982</v>
@@ -31932,7 +31932,7 @@
         <v>34.43247312799863</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097739</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P13" t="n">
         <v>27.2137837874944</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964729</v>
+        <v>3.92128859896473</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225474</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31996,19 +31996,19 @@
         <v>19.33864251126652</v>
       </c>
       <c r="J14" t="n">
-        <v>42.5742327952949</v>
+        <v>42.57423279529491</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881185</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930722</v>
       </c>
       <c r="M14" t="n">
         <v>88.07979798603014</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203784</v>
       </c>
       <c r="O14" t="n">
         <v>84.5170534574971</v>
@@ -32017,7 +32017,7 @@
         <v>72.1333497548347</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882063</v>
       </c>
       <c r="R14" t="n">
         <v>31.50978542632373</v>
@@ -32026,10 +32026,10 @@
         <v>11.43062878478661</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948036</v>
+        <v>2.195834448948037</v>
       </c>
       <c r="U14" t="n">
-        <v>0.040129470226349</v>
+        <v>0.04012947022634901</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,34 +32069,34 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566878</v>
+        <v>2.592077475566879</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298817</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018444</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684184</v>
+        <v>43.33901744684185</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422267</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935446</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068134</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782761</v>
+        <v>63.85668792782762</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713475</v>
+        <v>51.25062176713476</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095297</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775874</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648516</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I16" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J16" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736501</v>
       </c>
       <c r="K16" t="n">
         <v>26.1419239930982</v>
@@ -32169,7 +32169,7 @@
         <v>34.43247312799863</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097739</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P16" t="n">
         <v>27.2137837874944</v>
@@ -32181,10 +32181,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964729</v>
+        <v>3.92128859896473</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225474</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32233,19 +32233,19 @@
         <v>19.33864251126652</v>
       </c>
       <c r="J17" t="n">
-        <v>42.5742327952949</v>
+        <v>42.57423279529491</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881185</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930722</v>
       </c>
       <c r="M17" t="n">
         <v>88.07979798603014</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203784</v>
       </c>
       <c r="O17" t="n">
         <v>84.5170534574971</v>
@@ -32254,7 +32254,7 @@
         <v>72.1333497548347</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882063</v>
       </c>
       <c r="R17" t="n">
         <v>31.50978542632373</v>
@@ -32263,10 +32263,10 @@
         <v>11.43062878478661</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948036</v>
+        <v>2.195834448948037</v>
       </c>
       <c r="U17" t="n">
-        <v>0.040129470226349</v>
+        <v>0.04012947022634901</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,34 +32306,34 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566878</v>
+        <v>2.592077475566879</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298817</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018444</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684184</v>
+        <v>43.33901744684185</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422267</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935446</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068134</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782761</v>
+        <v>63.85668792782762</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713475</v>
+        <v>51.25062176713476</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095297</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775874</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648516</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I19" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J19" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736501</v>
       </c>
       <c r="K19" t="n">
         <v>26.1419239930982</v>
@@ -32406,7 +32406,7 @@
         <v>34.43247312799863</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097739</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P19" t="n">
         <v>27.2137837874944</v>
@@ -32418,10 +32418,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964729</v>
+        <v>3.92128859896473</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225474</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32470,19 +32470,19 @@
         <v>19.33864251126652</v>
       </c>
       <c r="J20" t="n">
-        <v>42.5742327952949</v>
+        <v>42.57423279529491</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881185</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930722</v>
       </c>
       <c r="M20" t="n">
         <v>88.07979798603014</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203784</v>
       </c>
       <c r="O20" t="n">
         <v>84.5170534574971</v>
@@ -32491,7 +32491,7 @@
         <v>72.1333497548347</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882063</v>
       </c>
       <c r="R20" t="n">
         <v>31.50978542632373</v>
@@ -32500,10 +32500,10 @@
         <v>11.43062878478661</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948036</v>
+        <v>2.195834448948037</v>
       </c>
       <c r="U20" t="n">
-        <v>0.040129470226349</v>
+        <v>0.04012947022634901</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,34 +32543,34 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566878</v>
+        <v>2.592077475566879</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298817</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018444</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684184</v>
+        <v>43.33901744684185</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422267</v>
       </c>
       <c r="M21" t="n">
         <v>68.00377645935446</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068134</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782761</v>
+        <v>63.85668792782762</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713475</v>
+        <v>51.25062176713476</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095297</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775874</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648516</v>
       </c>
       <c r="H22" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I22" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615721</v>
       </c>
       <c r="J22" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736501</v>
       </c>
       <c r="K22" t="n">
         <v>26.1419239930982</v>
@@ -32643,7 +32643,7 @@
         <v>34.43247312799863</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097739</v>
+        <v>31.8039619909774</v>
       </c>
       <c r="P22" t="n">
         <v>27.2137837874944</v>
@@ -32655,10 +32655,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964729</v>
+        <v>3.92128859896473</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225474</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
@@ -32710,22 +32710,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P23" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q23" t="n">
         <v>54.16914159882062</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566878</v>
@@ -32792,10 +32792,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
         <v>69.80363407068133</v>
@@ -32807,10 +32807,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R24" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
         <v>4.985217124898147</v>
@@ -32862,7 +32862,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I25" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
@@ -32877,7 +32877,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
         <v>31.80396199097739</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
@@ -32947,22 +32947,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P26" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q26" t="n">
         <v>54.16914159882062</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566878</v>
@@ -33029,10 +33029,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
         <v>69.80363407068133</v>
@@ -33044,10 +33044,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R27" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
         <v>4.985217124898147</v>
@@ -33099,7 +33099,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I28" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
@@ -33114,7 +33114,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
         <v>31.80396199097739</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
@@ -33184,22 +33184,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P29" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q29" t="n">
         <v>54.16914159882062</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566878</v>
@@ -33266,10 +33266,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
         <v>69.80363407068133</v>
@@ -33281,10 +33281,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
         <v>4.985217124898147</v>
@@ -33336,7 +33336,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I31" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33351,7 +33351,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
         <v>31.80396199097739</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
@@ -33421,22 +33421,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P32" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q32" t="n">
         <v>54.16914159882062</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566878</v>
@@ -33503,10 +33503,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
         <v>69.80363407068133</v>
@@ -33518,10 +33518,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R33" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
         <v>4.985217124898147</v>
@@ -33573,7 +33573,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I34" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33588,7 +33588,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
         <v>31.80396199097739</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
@@ -33658,22 +33658,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P35" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q35" t="n">
         <v>54.16914159882062</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
         <v>2.592077475566878</v>
@@ -33740,10 +33740,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
         <v>69.80363407068133</v>
@@ -33755,10 +33755,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R36" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
         <v>4.985217124898147</v>
@@ -33810,7 +33810,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I37" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
@@ -33825,7 +33825,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
         <v>31.80396199097739</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
@@ -33895,22 +33895,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P38" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q38" t="n">
         <v>54.16914159882062</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566878</v>
@@ -33977,10 +33977,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
         <v>69.80363407068133</v>
@@ -33992,10 +33992,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R39" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
         <v>4.985217124898147</v>
@@ -34047,7 +34047,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I40" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34062,7 +34062,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
         <v>31.80396199097739</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
@@ -34132,22 +34132,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P41" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q41" t="n">
         <v>54.16914159882062</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566878</v>
@@ -34214,10 +34214,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
         <v>69.80363407068133</v>
@@ -34229,10 +34229,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R42" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
         <v>4.985217124898147</v>
@@ -34284,7 +34284,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I43" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34299,7 +34299,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
         <v>31.80396199097739</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
@@ -34369,22 +34369,22 @@
         <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881184</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
         <v>79.15914215930721</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203782</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P44" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q44" t="n">
         <v>54.16914159882062</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829465</v>
+        <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566878</v>
@@ -34451,10 +34451,10 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422266</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
         <v>69.80363407068133</v>
@@ -34466,10 +34466,10 @@
         <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095296</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R45" t="n">
-        <v>16.66369152775874</v>
+        <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
         <v>4.985217124898147</v>
@@ -34521,7 +34521,7 @@
         <v>2.000532211678409</v>
       </c>
       <c r="I46" t="n">
-        <v>6.76662633561572</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34536,7 +34536,7 @@
         <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799863</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
         <v>31.80396199097739</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225473</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406823</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427614</v>
+        <v>44.17844238427583</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N12" t="n">
-        <v>350.2546540411925</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O12" t="n">
-        <v>315.1227627601127</v>
+        <v>210.8096911174893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340482</v>
+        <v>39.20416659260086</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5890331999279</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L13" t="n">
         <v>192.7592886547758</v>
@@ -35583,10 +35583,10 @@
         <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>24.49234305238789</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.33459915445741</v>
+        <v>64.39597107526137</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427583</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>290.5606228478076</v>
+        <v>290.5606228478077</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N15" t="n">
-        <v>325.283236757783</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>114.8222138186696</v>
       </c>
       <c r="P15" t="n">
         <v>235.7389829927417</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340482</v>
+        <v>54.26553851340476</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>120.5276612791254</v>
       </c>
       <c r="L16" t="n">
-        <v>61.04268762206326</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M16" t="n">
         <v>206.571620045648</v>
@@ -35817,13 +35817,13 @@
         <v>210.2812465399398</v>
       </c>
       <c r="O16" t="n">
-        <v>173.0443190169258</v>
+        <v>56.38908990501707</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526137</v>
+        <v>64.39597107526131</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406823</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35893,7 +35893,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N17" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174311</v>
       </c>
       <c r="O17" t="n">
         <v>235.2190232985557</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427583</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9628154850614</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5606228478076</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>276.1107667815515</v>
+      </c>
+      <c r="N18" t="n">
         <v>380.423838424175</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10.16047399767051</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427583</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>169.9628154850615</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478076</v>
+        <v>290.5606228478077</v>
       </c>
       <c r="M21" t="n">
+        <v>300.6729066938568</v>
+      </c>
+      <c r="N21" t="n">
         <v>380.423838424175</v>
-      </c>
-      <c r="N21" t="n">
-        <v>300.6729066938566</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478076</v>
+        <v>90.26007390636471</v>
       </c>
       <c r="M24" t="n">
         <v>380.423838424175</v>
@@ -36449,13 +36449,13 @@
         <v>380.423838424175</v>
       </c>
       <c r="O24" t="n">
-        <v>24.60426532046207</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N25" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520763</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809444</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>72.59299775914424</v>
       </c>
       <c r="K28" t="n">
-        <v>99.44363647725054</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L28" t="n">
         <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913875</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501707</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238789</v>
+        <v>43.32334098375239</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191345</v>
       </c>
       <c r="K29" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334481</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300419</v>
+        <v>457.291158530042</v>
       </c>
       <c r="N29" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958832</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770077</v>
+        <v>385.2630835770078</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494999</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627279</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362611</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520763</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.5929977591443</v>
       </c>
       <c r="K31" t="n">
-        <v>23.35278564475215</v>
+        <v>105.4268604195797</v>
       </c>
       <c r="L31" t="n">
         <v>211.0867479005153</v>
@@ -36999,13 +36999,13 @@
         <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
@@ -37084,13 +37084,13 @@
         <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224495003</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q32" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362603</v>
+        <v>31.68472776362605</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392658</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239624</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882809</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520734</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809415</v>
+        <v>1.360211686809443</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914421</v>
+        <v>72.59299775914424</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456673</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M34" t="n">
-        <v>82.6641081098479</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N34" t="n">
-        <v>78.56464550722723</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238789</v>
+        <v>32.30143214929988</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100076</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O36" t="n">
-        <v>315.1227627601127</v>
+        <v>155.9880512624232</v>
       </c>
       <c r="P36" t="n">
-        <v>139.7936311020791</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N37" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P37" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37561,16 +37561,16 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>9.186815169423518e-13</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
@@ -37634,10 +37634,10 @@
         <v>380.4238384241751</v>
       </c>
       <c r="O39" t="n">
-        <v>49.214595384389</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>235.7389829927417</v>
+        <v>139.7936311020796</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N40" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>29.76276805604393</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871768948</v>
+        <v>76.77980871768901</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37798,7 +37798,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R41" t="n">
         <v>102.5406826003574</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>218.887208319683</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873361</v>
@@ -37877,7 +37877,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.3551970507805</v>
+        <v>57.29211258658233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N43" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>29.76276805604393</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>76.77980871768901</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38023,7 +38023,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>353.401963528597</v>
+        <v>307.2470982515899</v>
       </c>
       <c r="N44" t="n">
         <v>297.4388820174311</v>
@@ -38035,7 +38035,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427582</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R44" t="n">
         <v>102.5406826003574</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>57.29211258658243</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
@@ -38108,13 +38108,13 @@
         <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
-        <v>243.4493482319882</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215351</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206326</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293546</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N46" t="n">
-        <v>78.56464550722723</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501707</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238789</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
